--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1,190 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tungabhadra dam gate crash</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -505,160 +535,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,7 +936,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -915,7 +945,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -928,74 +958,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1255,58 +1222,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col width="26.8888888888889" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.2222222222222" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="26.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Tungabhadra dam gate crash</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>16 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1,220 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Tungabhadra dam gate crash</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -535,160 +505,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,7 +906,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -945,7 +915,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -958,11 +928,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1222,40 +1255,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
+    <col width="26.8888888888889" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.2222222222222" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Tungabhadra dam gate crash</t>
+        </is>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>16 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1260,16 +1260,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col width="26.8888888888889" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.2222222222222" customWidth="1" style="1" min="3" max="3"/>
+    <col width="88.7777777777778" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.7777777777778" customWidth="1" style="1" min="2" max="2"/>
+    <col width="131.888888888889" customWidth="1" style="1" min="3" max="3"/>
+    <col width="47.8888888888889" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1288,21 +1290,175 @@
           <t>Description</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Tungabhadra dam gate crash</t>
+          <t>double decker flyover in bengaluru</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>16 Aug 2024</t>
+          <t>22 Jul 2024</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
+          <t>The double-decker flyover features two separate carriageways, each with two lanes. It passes by three metro stations: Jayadeva Hospital,...</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>The Hindu, NDTV, Times of India, Hindustan Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>tungabhadra dam crash</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
           <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>tungabhadra dam crash</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>The Hans India, Outlook India, Deccan Herald</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>double decker flyover in bengaluru</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>22 Jul 2024</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>The double-decker flyover features two separate carriageways, each with two lanes. It passes by three metro stations: Jayadeva Hospital,...</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Times of India, The Hindu, Hindustan Times, NDTV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>tungabhadra dam crash</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deccan Herald, Outlook India, The Hans India</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>tungabhadra dam gate crash</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Outlook India, The Hans India, Deccan Herald</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>karnataka dam water level</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>18 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka news, Karnataka dam news: More than 36 tmcft of water was lost due to continuous and unregulated outflow after the crest gate...</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>tungabhadra dam gate crash</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>15 Aug 2024</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The Hans India, Deccan Herald, Outlook India</t>
         </is>
       </c>
     </row>
